--- a/contact_mechanics/input_data.xlsx
+++ b/contact_mechanics/input_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="120">
   <si>
     <t>Rx1</t>
   </si>
@@ -26,12 +26,6 @@
   </si>
   <si>
     <t>Ry2</t>
-  </si>
-  <si>
-    <t>Dados Geometria</t>
-  </si>
-  <si>
-    <t>Dados Material</t>
   </si>
   <si>
     <t>E1</t>
@@ -89,15 +83,9 @@
     <t>Pa</t>
   </si>
   <si>
-    <t>Superfície</t>
-  </si>
-  <si>
     <t>Fn</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ambiente</t>
-  </si>
-  <si>
     <t>Tf</t>
   </si>
   <si>
@@ -116,9 +104,6 @@
     <t>Kg/m3</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lubrificante</t>
-  </si>
-  <si>
     <t>T1</t>
   </si>
   <si>
@@ -146,9 +131,6 @@
     <t>Gra. Esp.</t>
   </si>
   <si>
-    <t>Cinemática</t>
-  </si>
-  <si>
     <t>V1</t>
   </si>
   <si>
@@ -176,9 +158,6 @@
     <t>lambda 2</t>
   </si>
   <si>
-    <t>OU</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -188,21 +167,6 @@
     <t>sq2</t>
   </si>
   <si>
-    <t>Medição 1</t>
-  </si>
-  <si>
-    <t>Medição 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Plotar</t>
-  </si>
-  <si>
-    <t>Constantes (pontual)</t>
-  </si>
-  <si>
-    <t>Medições CCI</t>
-  </si>
-  <si>
     <t>alfa</t>
   </si>
   <si>
@@ -230,42 +194,6 @@
     <t>amp 1</t>
   </si>
   <si>
-    <t>Corpo 1</t>
-  </si>
-  <si>
-    <t>Superfícies</t>
-  </si>
-  <si>
-    <t>Tensões 'rugosas'</t>
-  </si>
-  <si>
-    <t>Corpo 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Variar entradas</t>
-  </si>
-  <si>
-    <t>pontos</t>
-  </si>
-  <si>
-    <t>Parâmetro a variar</t>
-  </si>
-  <si>
-    <t>De:</t>
-  </si>
-  <si>
-    <t>até:</t>
-  </si>
-  <si>
-    <t>Resultado a plotar</t>
-  </si>
-  <si>
-    <t>Variar parâmetro (SI)</t>
-  </si>
-  <si>
-    <t>com</t>
-  </si>
-  <si>
     <t>poisson1</t>
   </si>
   <si>
@@ -399,6 +327,75 @@
   </si>
   <si>
     <t>Tmax_lub</t>
+  </si>
+  <si>
+    <t>Geometry Data</t>
+  </si>
+  <si>
+    <t>Material Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Environment</t>
+  </si>
+  <si>
+    <t>Cinematics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lubricant</t>
+  </si>
+  <si>
+    <t>Vary parameter</t>
+  </si>
+  <si>
+    <t>Parameter to vary</t>
+  </si>
+  <si>
+    <t>Vary parameter (SI)</t>
+  </si>
+  <si>
+    <t>From:</t>
+  </si>
+  <si>
+    <t>to:</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>discretization points</t>
+  </si>
+  <si>
+    <t>Result to plot:</t>
+  </si>
+  <si>
+    <t>Surface</t>
+  </si>
+  <si>
+    <t>Body 1</t>
+  </si>
+  <si>
+    <t>Body 2</t>
+  </si>
+  <si>
+    <t>Has .txt 1</t>
+  </si>
+  <si>
+    <t>Has .txt 2</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Plot</t>
+  </si>
+  <si>
+    <t>Constants elliptical</t>
+  </si>
+  <si>
+    <t>Txt measurements (CCI)</t>
+  </si>
+  <si>
+    <t>Surfaces</t>
   </si>
 </sst>
 </file>
@@ -482,7 +479,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -666,11 +663,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -746,6 +765,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -794,38 +846,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,7 +1160,7 @@
   <dimension ref="B1:T51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1140,7 +1169,7 @@
     <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.21875" customWidth="1"/>
-    <col min="14" max="14" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1">
@@ -1151,31 +1180,31 @@
       <c r="R1" s="12"/>
     </row>
     <row r="2" spans="2:20" ht="15" thickBot="1">
-      <c r="B2" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="43"/>
+      <c r="B2" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="30"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
-      <c r="F2" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="41"/>
+      <c r="F2" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="28"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="43"/>
-      <c r="N2" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" s="41"/>
+      <c r="J2" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="30"/>
+      <c r="N2" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="O2" s="51"/>
       <c r="P2" s="15"/>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
       <c r="T2" s="24" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="15" thickBot="1">
@@ -1186,33 +1215,33 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G3" s="14">
         <v>0</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="I3" s="18"/>
-      <c r="J3" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="43"/>
+      <c r="J3" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="30"/>
       <c r="N3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" s="14"/>
+        <v>117</v>
+      </c>
+      <c r="O3" s="1"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
       <c r="S3" s="23"/>
       <c r="T3" s="24" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:20">
@@ -1220,36 +1249,36 @@
         <v>2</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="6" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="18"/>
       <c r="N4" s="6" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="T4" s="24" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:20">
@@ -1260,35 +1289,35 @@
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="6" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I5" s="18"/>
-      <c r="J5" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="39"/>
+      <c r="J5" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="K5" s="26"/>
       <c r="L5" s="18"/>
       <c r="N5" s="6" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="T5" s="24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:20">
@@ -1296,79 +1325,75 @@
         <v>3</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K6" s="10">
         <v>3.53E-7</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="N6" s="17"/>
+      <c r="O6" s="49"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="T6" s="24" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:20">
       <c r="B7" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="6" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K7" s="10">
         <v>1.7200000000000001E-4</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
       <c r="T7" s="24" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:20" ht="15" thickBot="1">
@@ -1376,48 +1401,48 @@
       <c r="C8" s="2"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="39"/>
+      <c r="F8" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="26"/>
       <c r="I8" s="17"/>
-      <c r="J8" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="39"/>
+      <c r="J8" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" s="26"/>
       <c r="L8" s="18"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
       <c r="T8" s="24" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="15" thickBot="1">
-      <c r="B9" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="43"/>
+      <c r="B9" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="30"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G9" s="14">
         <v>40</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K9" s="10">
         <v>2.9999999999999999E-7</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="3"/>
@@ -1425,34 +1450,34 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="T9" s="24" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="15" thickBot="1">
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" s="10">
         <v>210000000000</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G10" s="1">
         <v>218</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I10" s="17"/>
-      <c r="J10" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="43"/>
+      <c r="J10" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" s="30"/>
       <c r="L10" s="18"/>
       <c r="N10" s="12"/>
       <c r="O10" s="3"/>
@@ -1460,32 +1485,32 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
       <c r="T10" s="24" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="2:20">
       <c r="B11" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" s="10">
         <v>210000000000</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1">
         <v>100</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="6" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="18"/>
@@ -1495,12 +1520,12 @@
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
       <c r="T11" s="24" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="2:20">
       <c r="B12" s="6" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1">
         <v>0.3</v>
@@ -1510,19 +1535,19 @@
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G12" s="1">
         <v>24.6</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I12" s="18"/>
-      <c r="J12" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="39"/>
+      <c r="J12" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" s="26"/>
       <c r="L12" s="18"/>
       <c r="N12" s="12"/>
       <c r="O12" s="3"/>
@@ -1530,12 +1555,12 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
       <c r="T12" s="24" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="2:20">
       <c r="B13" s="6" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1">
         <v>0.3</v>
@@ -1545,7 +1570,7 @@
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1">
         <v>0.86399999999999999</v>
@@ -1553,13 +1578,13 @@
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="6" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="K13" s="10">
         <v>1.6999999999999999E-7</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="3"/>
@@ -1567,22 +1592,22 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
       <c r="T13" s="24" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="2:20">
       <c r="B14" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="11">
         <v>46</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="6" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="G14" s="1">
         <v>0.7</v>
@@ -1590,13 +1615,13 @@
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K14" s="10">
         <v>0</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="3"/>
@@ -1604,54 +1629,54 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
       <c r="T14" s="24" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="2:20">
       <c r="B15" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" s="11">
         <v>46</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G15" s="16">
         <v>9.9039999999999999</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="K15" s="39"/>
+      <c r="J15" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" s="26"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
       <c r="T15" s="24" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:20">
       <c r="B16" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="11">
         <v>470</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G16" s="16">
         <v>0.13900000000000001</v>
@@ -1659,13 +1684,13 @@
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K16" s="10">
         <v>2.9999999999999999E-7</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
@@ -1673,61 +1698,61 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
       <c r="T16" s="24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:20">
       <c r="B17" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17" s="11">
         <v>470</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
       <c r="T17" s="24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:20">
       <c r="B18" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18" s="11">
         <v>7817</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="T18" s="24" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:20">
       <c r="B19" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="11">
         <v>7817</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="T19" s="24" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:20" ht="15" thickBot="1">
@@ -1739,110 +1764,110 @@
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="T20" s="24" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="2:20" ht="15" thickBot="1">
-      <c r="B21" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="45"/>
+      <c r="B21" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="32"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="37"/>
+      <c r="F21" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="48"/>
       <c r="T21" s="24" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:20" ht="15">
       <c r="B22" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C22" s="19">
         <v>0</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E22" s="18"/>
-      <c r="F22" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="27"/>
-      <c r="K22" s="28"/>
+      <c r="F22" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="38"/>
+      <c r="K22" s="39"/>
       <c r="T22" s="24" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:20" ht="15">
       <c r="B23" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C23" s="19">
         <v>2500000000</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E23" s="18"/>
-      <c r="F23" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="31"/>
+      <c r="F23" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
       <c r="T23" s="24" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:20" ht="15">
       <c r="B24" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C24" s="20">
         <v>70</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="9" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="I24" s="1">
         <v>200</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="K24" s="20">
         <v>50</v>
       </c>
       <c r="L24" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="T24" s="24" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="2:20" ht="15.6" thickBot="1">
@@ -1850,25 +1875,25 @@
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
+      <c r="F25" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="J25" s="44"/>
+      <c r="K25" s="45"/>
       <c r="T25" s="24" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="2:20" ht="15.6" thickBot="1">
-      <c r="B26" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="43"/>
+      <c r="B26" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="30"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="3"/>
@@ -1877,190 +1902,195 @@
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
       <c r="T26" s="24" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C27" s="14">
         <v>1000</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
       <c r="T27" s="24" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:20">
       <c r="B28" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1">
         <v>1000</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
       <c r="T28" s="24" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="2:20">
       <c r="B29" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
       <c r="T29" s="24" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="2:20">
       <c r="B30" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E30" s="18"/>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
       <c r="T30" s="24" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="2:20" ht="15">
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
       <c r="T31" s="24" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="2:20">
       <c r="T32" s="24" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="20:20">
       <c r="T33" s="24" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="20:20">
       <c r="T34" s="24" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="20:20">
       <c r="T35" s="24" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="20:20">
       <c r="T36" s="24" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="20:20">
       <c r="T37" s="24" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="20:20">
       <c r="T38" s="24" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="20:20">
       <c r="T39" s="24" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="20:20">
       <c r="T40" s="24" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="20:20">
       <c r="T41" s="24" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="20:20">
       <c r="T42" s="24" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="20:20">
       <c r="T43" s="24" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="20:20">
       <c r="T44" s="24" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="20:20">
       <c r="T45" s="24" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="20:20">
       <c r="T46" s="24" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="20:20">
       <c r="T47" s="24" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="20:20">
       <c r="T48" s="24" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="20:20">
       <c r="T49" s="24" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="20:20">
       <c r="T50" s="24" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="20:20">
       <c r="T51" s="24" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="J2:K2"/>
@@ -2077,18 +2107,13 @@
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I21:K21"/>
   </mergeCells>
-  <dataValidations count="14">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Preencher Fn ou Po._x000a_Caso as duas sejam preenchidas, o algoritmo dará preferência para Fn." sqref="C22:C23"/>
+  <dataValidations disablePrompts="1" count="14">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Fn or Po._x000a_If both are inputted, calculation will e with Fn." sqref="C22:C23"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Mineral - 9.9040_x000a_PAO - 7.3820_x000a_Ester - 6.6050" sqref="G15"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Mineral - 0.1390_x000a_PAO - 0.1335_x000a_Ester - 0.1360" sqref="G16"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Temperatura de operação" sqref="C24"/>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Inserir x se for para plotar" sqref="O3:O5 O6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Operation temperature" sqref="C24"/>
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Inserir x se for para plotar" sqref="O3:O6">
       <formula1>"x"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Algoritmo dará preferência_x000a_1: Medição CCI_x000a_2: Amplitude e Lambda_x000a_3: Sq direto" sqref="J2:K3 J10:K10"/>

--- a/contact_mechanics/input_data.xlsx
+++ b/contact_mechanics/input_data.xlsx
@@ -765,38 +765,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -846,15 +817,44 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1160,7 +1160,7 @@
   <dimension ref="B1:T51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1180,26 +1180,26 @@
       <c r="R1" s="12"/>
     </row>
     <row r="2" spans="2:20" ht="15" thickBot="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="28"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="N2" s="50" t="s">
+      <c r="K2" s="44"/>
+      <c r="N2" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="O2" s="51"/>
+      <c r="O2" s="42"/>
       <c r="P2" s="15"/>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
@@ -1228,10 +1228,10 @@
         <v>49</v>
       </c>
       <c r="I3" s="18"/>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="30"/>
+      <c r="K3" s="44"/>
       <c r="N3" s="6" t="s">
         <v>117</v>
       </c>
@@ -1302,10 +1302,10 @@
         <v>48</v>
       </c>
       <c r="I5" s="18"/>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="K5" s="26"/>
+      <c r="K5" s="40"/>
       <c r="L5" s="18"/>
       <c r="N5" s="6" t="s">
         <v>119</v>
@@ -1351,7 +1351,7 @@
         <v>13</v>
       </c>
       <c r="N6" s="17"/>
-      <c r="O6" s="49"/>
+      <c r="O6" s="25"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
@@ -1401,15 +1401,15 @@
       <c r="C8" s="2"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="40"/>
       <c r="I8" s="17"/>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="K8" s="26"/>
+      <c r="K8" s="40"/>
       <c r="L8" s="18"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -1419,10 +1419,10 @@
       </c>
     </row>
     <row r="9" spans="2:20" ht="15" thickBot="1">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="5" t="s">
@@ -1474,10 +1474,10 @@
         <v>27</v>
       </c>
       <c r="I10" s="17"/>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="K10" s="30"/>
+      <c r="K10" s="44"/>
       <c r="L10" s="18"/>
       <c r="N10" s="12"/>
       <c r="O10" s="3"/>
@@ -1544,10 +1544,10 @@
         <v>27</v>
       </c>
       <c r="I12" s="18"/>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="K12" s="26"/>
+      <c r="K12" s="40"/>
       <c r="L12" s="18"/>
       <c r="N12" s="12"/>
       <c r="O12" s="3"/>
@@ -1651,10 +1651,10 @@
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="K15" s="26"/>
+      <c r="K15" s="40"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
@@ -1768,20 +1768,20 @@
       </c>
     </row>
     <row r="21" spans="2:20" ht="15" thickBot="1">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="32"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="48"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
       <c r="T21" s="24" t="s">
         <v>45</v>
       </c>
@@ -1797,16 +1797,16 @@
         <v>18</v>
       </c>
       <c r="E22" s="18"/>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="37" t="s">
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="38"/>
-      <c r="K22" s="39"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="29"/>
       <c r="T22" s="24" t="s">
         <v>44</v>
       </c>
@@ -1822,14 +1822,14 @@
         <v>14</v>
       </c>
       <c r="E23" s="18"/>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="42"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="32"/>
       <c r="T23" s="24" t="s">
         <v>43</v>
       </c>
@@ -1875,25 +1875,25 @@
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="43" t="s">
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="J25" s="44"/>
-      <c r="K25" s="45"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
       <c r="T25" s="24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="26" spans="2:20" ht="15.6" thickBot="1">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="30"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="3"/>
@@ -2086,11 +2086,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I21:K21"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="J2:K2"/>
@@ -2107,17 +2102,22 @@
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I21:K21"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="14">
+  <dataValidations count="15">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Fn or Po._x000a_If both are inputted, calculation will e with Fn." sqref="C22:C23"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Mineral - 9.9040_x000a_PAO - 7.3820_x000a_Ester - 6.6050" sqref="G15"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Mineral - 0.1390_x000a_PAO - 0.1335_x000a_Ester - 0.1360" sqref="G16"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Operation temperature" sqref="C24"/>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Inserir x se for para plotar" sqref="O3:O6">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Inserir x se for para plotar" sqref="O6">
       <formula1>"x"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Algoritmo dará preferência_x000a_1: Medição CCI_x000a_2: Amplitude e Lambda_x000a_3: Sq direto" sqref="J2:K3 J10:K10"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Preencher com inf caso infinito" sqref="C3:C6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Fill with inf case infinity" sqref="C3:C6"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Algoritmo dará preferência para valores diretos._x000a_Deixar 0 em qualquer valor para calcular usando norma ASTMD341." sqref="F2:G2"/>
     <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Marcar com um x se utilizar medição do CCI" sqref="K11 K4">
       <formula1>"x"</formula1>
@@ -2129,13 +2129,16 @@
     <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Inserir x se for para variar entradas" sqref="I21:K21">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Inserir valor inteiro maior que 1" sqref="K24">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input integer greater than 1" sqref="K24">
       <formula1>1</formula1>
       <formula2>1000000</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I25:K25">
       <formula1>$T$2:$T$51</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Input x to plot" sqref="O3:O5">
+      <formula1>"x"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/contact_mechanics/input_data.xlsx
+++ b/contact_mechanics/input_data.xlsx
@@ -769,6 +769,45 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -816,45 +855,6 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1160,7 +1160,7 @@
   <dimension ref="B1:T51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1180,26 +1180,26 @@
       <c r="R1" s="12"/>
     </row>
     <row r="2" spans="2:20" ht="15" thickBot="1">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="44"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="48"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="N2" s="41" t="s">
+      <c r="K2" s="31"/>
+      <c r="N2" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="O2" s="42"/>
+      <c r="O2" s="29"/>
       <c r="P2" s="15"/>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
@@ -1228,10 +1228,10 @@
         <v>49</v>
       </c>
       <c r="I3" s="18"/>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="44"/>
+      <c r="K3" s="31"/>
       <c r="N3" s="6" t="s">
         <v>117</v>
       </c>
@@ -1302,10 +1302,10 @@
         <v>48</v>
       </c>
       <c r="I5" s="18"/>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="K5" s="40"/>
+      <c r="K5" s="27"/>
       <c r="L5" s="18"/>
       <c r="N5" s="6" t="s">
         <v>119</v>
@@ -1384,7 +1384,7 @@
         <v>38</v>
       </c>
       <c r="K7" s="10">
-        <v>1.7200000000000001E-4</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="L7" s="18" t="s">
         <v>13</v>
@@ -1401,15 +1401,15 @@
       <c r="C8" s="2"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="40"/>
+      <c r="G8" s="27"/>
       <c r="I8" s="17"/>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="K8" s="40"/>
+      <c r="K8" s="27"/>
       <c r="L8" s="18"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -1419,10 +1419,10 @@
       </c>
     </row>
     <row r="9" spans="2:20" ht="15" thickBot="1">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="44"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="5" t="s">
@@ -1474,10 +1474,10 @@
         <v>27</v>
       </c>
       <c r="I10" s="17"/>
-      <c r="J10" s="43" t="s">
+      <c r="J10" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="K10" s="44"/>
+      <c r="K10" s="31"/>
       <c r="L10" s="18"/>
       <c r="N10" s="12"/>
       <c r="O10" s="3"/>
@@ -1544,10 +1544,10 @@
         <v>27</v>
       </c>
       <c r="I12" s="18"/>
-      <c r="J12" s="39" t="s">
+      <c r="J12" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="K12" s="40"/>
+      <c r="K12" s="27"/>
       <c r="L12" s="18"/>
       <c r="N12" s="12"/>
       <c r="O12" s="3"/>
@@ -1651,10 +1651,10 @@
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="39" t="s">
+      <c r="J15" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="K15" s="40"/>
+      <c r="K15" s="27"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
@@ -1768,20 +1768,20 @@
       </c>
     </row>
     <row r="21" spans="2:20" ht="15" thickBot="1">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="46"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="51"/>
       <c r="T21" s="24" t="s">
         <v>45</v>
       </c>
@@ -1797,16 +1797,16 @@
         <v>18</v>
       </c>
       <c r="E22" s="18"/>
-      <c r="F22" s="49" t="s">
+      <c r="F22" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="27" t="s">
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="29"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="42"/>
       <c r="T22" s="24" t="s">
         <v>44</v>
       </c>
@@ -1822,14 +1822,14 @@
         <v>14</v>
       </c>
       <c r="E23" s="18"/>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="32"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="45"/>
       <c r="T23" s="24" t="s">
         <v>43</v>
       </c>
@@ -1848,20 +1848,20 @@
       <c r="F24" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="16">
         <v>1</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>106</v>
       </c>
       <c r="I24" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>107</v>
       </c>
       <c r="K24" s="20">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="L24" t="s">
         <v>108</v>
@@ -1875,25 +1875,25 @@
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="35"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="47"/>
+      <c r="K25" s="48"/>
       <c r="T25" s="24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="26" spans="2:20" ht="15.6" thickBot="1">
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="44"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="3"/>
@@ -2086,6 +2086,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="F23:K23"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="J2:K2"/>
@@ -2102,13 +2107,8 @@
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I21:K21"/>
   </mergeCells>
-  <dataValidations count="15">
+  <dataValidations count="16">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input Fn or Po._x000a_If both are inputted, calculation will e with Fn." sqref="C22:C23"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Mineral - 9.9040_x000a_PAO - 7.3820_x000a_Ester - 6.6050" sqref="G15"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Mineral - 0.1390_x000a_PAO - 0.1335_x000a_Ester - 0.1360" sqref="G16"/>
@@ -2119,14 +2119,11 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Algoritmo dará preferência_x000a_1: Medição CCI_x000a_2: Amplitude e Lambda_x000a_3: Sq direto" sqref="J2:K3 J10:K10"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Fill with inf case infinity" sqref="C3:C6"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Algoritmo dará preferência para valores diretos._x000a_Deixar 0 em qualquer valor para calcular usando norma ASTMD341." sqref="F2:G2"/>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Marcar com um x se utilizar medição do CCI" sqref="K11 K4">
-      <formula1>"x"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Colocar 0 se quiser usar Sq direto" sqref="K6:K7 K13:K14"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input 0 to use Sq" sqref="K13:K14"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I22:K22">
       <formula1>"Rx1, L, E1, Fn, Tf, n1, V1, alfa, k, eta, beta, v, sq1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Inserir x se for para variar entradas" sqref="I21:K21">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Input x to evaluate variation of selected parameter" sqref="I21:K21">
       <formula1>"x"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input integer greater than 1" sqref="K24">
@@ -2139,6 +2136,10 @@
     <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Input x to plot" sqref="O3:O5">
       <formula1>"x"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input 0 to use Sq" sqref="K6 K7"/>
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Input x if has txt data (CCI)" sqref="K4 K11">
+      <formula1>"x"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/contact_mechanics/input_data.xlsx
+++ b/contact_mechanics/input_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7308"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -200,9 +200,6 @@
     <t>poisson2</t>
   </si>
   <si>
-    <t>lambda_corr</t>
-  </si>
-  <si>
     <t>a_lub</t>
   </si>
   <si>
@@ -257,27 +254,12 @@
     <t>Wadm</t>
   </si>
   <si>
-    <t>h0_cru</t>
-  </si>
-  <si>
-    <t>hm_cru</t>
-  </si>
-  <si>
-    <t>lambda_cru</t>
-  </si>
-  <si>
     <t>fi_t</t>
   </si>
   <si>
     <t>L_term</t>
   </si>
   <si>
-    <t>h0_corr</t>
-  </si>
-  <si>
-    <t>hm_corr</t>
-  </si>
-  <si>
     <t>deltaT</t>
   </si>
   <si>
@@ -396,6 +378,24 @@
   </si>
   <si>
     <t>Surfaces</t>
+  </si>
+  <si>
+    <t>h0_without_correction</t>
+  </si>
+  <si>
+    <t>hm_without_correction</t>
+  </si>
+  <si>
+    <t>lambda_without_correction</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>h0</t>
+  </si>
+  <si>
+    <t>hm</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,8 +447,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF080808"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
@@ -689,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -761,9 +766,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -855,6 +857,10 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,6 +871,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1157,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T51"/>
+  <dimension ref="B1:U52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1172,47 +1181,52 @@
     <col min="14" max="14" width="23.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" thickBot="1">
+    <row r="1" spans="2:21" ht="15" thickBot="1">
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
       <c r="R1" s="12"/>
-    </row>
-    <row r="2" spans="2:20" ht="15" thickBot="1">
-      <c r="B2" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="31"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+    </row>
+    <row r="2" spans="2:21" ht="15" thickBot="1">
+      <c r="B2" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="30"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
-      <c r="F2" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="35"/>
+      <c r="F2" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="34"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="30"/>
+      <c r="N2" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="N2" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="O2" s="29"/>
+      <c r="O2" s="28"/>
       <c r="P2" s="15"/>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
-      <c r="T2" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" ht="15" thickBot="1">
+      <c r="S2" s="51"/>
+      <c r="T2" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" s="23"/>
+    </row>
+    <row r="3" spans="2:21" ht="15" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="10">
-        <v>3.5000000000000003E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>13</v>
@@ -1221,35 +1235,36 @@
       <c r="F3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="14">
-        <v>0</v>
+      <c r="G3" s="10">
+        <v>1.91688E-8</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>49</v>
       </c>
       <c r="I3" s="18"/>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="30"/>
+      <c r="N3" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="K3" s="31"/>
-      <c r="N3" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20">
+      <c r="S3" s="52"/>
+      <c r="T3" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" s="23"/>
+    </row>
+    <row r="4" spans="2:21">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>36</v>
+      <c r="C4" s="10">
+        <v>4.1500000000000002E-2</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>13</v>
@@ -1259,34 +1274,36 @@
         <v>44</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>0.12709999999999999</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="18"/>
       <c r="N4" s="6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
-      <c r="T4" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20">
+      <c r="S4" s="51"/>
+      <c r="T4" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" s="23"/>
+    </row>
+    <row r="5" spans="2:21">
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10">
-        <v>3.7499999999999999E-2</v>
+      <c r="C5" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>13</v>
@@ -1296,19 +1313,19 @@
         <v>45</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>0.1019</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>48</v>
       </c>
       <c r="I5" s="18"/>
-      <c r="J5" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="K5" s="27"/>
+      <c r="J5" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="26"/>
       <c r="L5" s="18"/>
       <c r="N5" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>40</v>
@@ -1316,16 +1333,18 @@
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
-      <c r="T5" s="24" t="s">
+      <c r="S5" s="51"/>
+      <c r="T5" s="23" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="2:20">
+      <c r="U5" s="23"/>
+    </row>
+    <row r="6" spans="2:21">
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>36</v>
+      <c r="C6" s="10">
+        <v>-5.2499999999999998E-2</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>13</v>
@@ -1334,8 +1353,8 @@
       <c r="F6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
+      <c r="G6" s="16">
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>47</v>
@@ -1345,36 +1364,38 @@
         <v>51</v>
       </c>
       <c r="K6" s="10">
-        <v>3.53E-7</v>
+        <v>0</v>
       </c>
       <c r="L6" s="18" t="s">
         <v>13</v>
       </c>
       <c r="N6" s="17"/>
-      <c r="O6" s="25"/>
+      <c r="O6" s="24"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
-      <c r="T6" s="24" t="s">
+      <c r="S6" s="51"/>
+      <c r="T6" s="23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="2:20">
+      <c r="U6" s="23"/>
+    </row>
+    <row r="7" spans="2:21">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>115.664</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>27</v>
@@ -1384,7 +1405,7 @@
         <v>38</v>
       </c>
       <c r="K7" s="10">
-        <v>8.0000000000000007E-5</v>
+        <v>0</v>
       </c>
       <c r="L7" s="18" t="s">
         <v>13</v>
@@ -1392,37 +1413,41 @@
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
-      <c r="T7" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" ht="15" thickBot="1">
+      <c r="S7" s="51"/>
+      <c r="T7" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="U7" s="23"/>
+    </row>
+    <row r="8" spans="2:21" ht="15" thickBot="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="27"/>
+      <c r="F8" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="26"/>
       <c r="I8" s="17"/>
-      <c r="J8" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="K8" s="27"/>
+      <c r="J8" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="26"/>
       <c r="L8" s="18"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
-      <c r="T8" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" ht="15" thickBot="1">
-      <c r="B9" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="31"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="U8" s="23"/>
+    </row>
+    <row r="9" spans="2:21" ht="15" thickBot="1">
+      <c r="B9" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="30"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="5" t="s">
@@ -1439,7 +1464,7 @@
         <v>41</v>
       </c>
       <c r="K9" s="10">
-        <v>2.9999999999999999E-7</v>
+        <v>5.3850000000000001E-7</v>
       </c>
       <c r="L9" s="18" t="s">
         <v>13</v>
@@ -1449,16 +1474,18 @@
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
-      <c r="T9" s="24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" ht="15" thickBot="1">
+      <c r="S9" s="51"/>
+      <c r="T9" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="U9" s="23"/>
+    </row>
+    <row r="10" spans="2:21" ht="15" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="10">
-        <v>210000000000</v>
+        <v>250000000000</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>14</v>
@@ -1474,26 +1501,28 @@
         <v>27</v>
       </c>
       <c r="I10" s="17"/>
-      <c r="J10" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="K10" s="31"/>
+      <c r="J10" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="30"/>
       <c r="L10" s="18"/>
       <c r="N10" s="12"/>
       <c r="O10" s="3"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
-      <c r="T10" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20">
+      <c r="S10" s="51"/>
+      <c r="T10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="U10" s="23"/>
+    </row>
+    <row r="11" spans="2:21">
       <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="10">
-        <v>210000000000</v>
+        <v>151000000000</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>14</v>
@@ -1510,7 +1539,7 @@
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="18"/>
@@ -1519,11 +1548,13 @@
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
-      <c r="T11" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20">
+      <c r="S11" s="51"/>
+      <c r="T11" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="U11" s="23"/>
+    </row>
+    <row r="12" spans="2:21">
       <c r="B12" s="6" t="s">
         <v>52</v>
       </c>
@@ -1544,26 +1575,28 @@
         <v>27</v>
       </c>
       <c r="I12" s="18"/>
-      <c r="J12" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="K12" s="27"/>
+      <c r="J12" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" s="26"/>
       <c r="L12" s="18"/>
       <c r="N12" s="12"/>
       <c r="O12" s="3"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
-      <c r="T12" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20">
+      <c r="S12" s="51"/>
+      <c r="T12" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="U12" s="23"/>
+    </row>
+    <row r="13" spans="2:21">
       <c r="B13" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="1">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="D13" s="18">
         <v>1</v>
@@ -1581,7 +1614,7 @@
         <v>50</v>
       </c>
       <c r="K13" s="10">
-        <v>1.6999999999999999E-7</v>
+        <v>0</v>
       </c>
       <c r="L13" s="18" t="s">
         <v>13</v>
@@ -1591,11 +1624,13 @@
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
-      <c r="T13" s="24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20">
+      <c r="S13" s="51"/>
+      <c r="T13" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="U13" s="23"/>
+    </row>
+    <row r="14" spans="2:21">
       <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
@@ -1607,7 +1642,7 @@
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1">
         <v>0.7</v>
@@ -1628,11 +1663,13 @@
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
-      <c r="T14" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20">
+      <c r="S14" s="51"/>
+      <c r="T14" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="U14" s="23"/>
+    </row>
+    <row r="15" spans="2:21">
       <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
@@ -1651,20 +1688,22 @@
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="K15" s="27"/>
+      <c r="J15" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="26"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
-      <c r="T15" s="24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20">
+      <c r="S15" s="51"/>
+      <c r="T15" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="U15" s="23"/>
+    </row>
+    <row r="16" spans="2:21">
       <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
@@ -1687,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="K16" s="10">
-        <v>2.9999999999999999E-7</v>
+        <v>7.1669999999999995E-7</v>
       </c>
       <c r="L16" s="18" t="s">
         <v>13</v>
@@ -1697,11 +1736,13 @@
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
-      <c r="T16" s="24" t="s">
+      <c r="S16" s="51"/>
+      <c r="T16" s="23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="2:20">
+      <c r="U16" s="23"/>
+    </row>
+    <row r="17" spans="2:21">
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
@@ -1715,11 +1756,13 @@
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
-      <c r="T17" s="24" t="s">
+      <c r="S17" s="51"/>
+      <c r="T17" s="23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="2:20">
+      <c r="U17" s="23"/>
+    </row>
+    <row r="18" spans="2:21">
       <c r="B18" s="7" t="s">
         <v>11</v>
       </c>
@@ -1733,11 +1776,13 @@
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
-      <c r="T18" s="24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20">
+      <c r="S18" s="51"/>
+      <c r="T18" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="U18" s="23"/>
+    </row>
+    <row r="19" spans="2:21">
       <c r="B19" s="7" t="s">
         <v>12</v>
       </c>
@@ -1751,11 +1796,13 @@
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
-      <c r="T19" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" ht="15" thickBot="1">
+      <c r="S19" s="51"/>
+      <c r="T19" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="U19" s="23"/>
+    </row>
+    <row r="20" spans="2:21" ht="15" thickBot="1">
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -1763,137 +1810,151 @@
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
-      <c r="T20" s="24" t="s">
+      <c r="S20" s="51"/>
+      <c r="T20" s="23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="2:20" ht="15" thickBot="1">
-      <c r="B21" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="33"/>
+      <c r="U20" s="23"/>
+    </row>
+    <row r="21" spans="2:21" ht="15" thickBot="1">
+      <c r="B21" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="32"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="51"/>
-      <c r="T21" s="24" t="s">
+      <c r="F21" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="49"/>
+      <c r="K21" s="50"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="2:20" ht="15">
+      <c r="U21" s="23"/>
+    </row>
+    <row r="22" spans="2:21" ht="15">
       <c r="B22" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="19">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="18"/>
-      <c r="F22" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-      <c r="T22" s="24" t="s">
+      <c r="F22" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="40"/>
+      <c r="K22" s="41"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="2:20" ht="15">
+      <c r="U22" s="23"/>
+    </row>
+    <row r="23" spans="2:21" ht="15">
       <c r="B23" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="19">
-        <v>2500000000</v>
+        <v>0</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="18"/>
-      <c r="F23" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
-      <c r="T23" s="24" t="s">
+      <c r="F23" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="44"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="23" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="2:20" ht="15">
+      <c r="U23" s="23"/>
+    </row>
+    <row r="24" spans="2:21" ht="15">
       <c r="B24" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="20">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G24" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I24" s="1">
-        <v>300</v>
+        <v>0.15</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K24" s="20">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L24" t="s">
-        <v>108</v>
-      </c>
-      <c r="T24" s="24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20" ht="15.6" thickBot="1">
+        <v>102</v>
+      </c>
+      <c r="S24" s="51"/>
+      <c r="T24" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="U24" s="23"/>
+    </row>
+    <row r="25" spans="2:21" ht="15.6" thickBot="1">
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
-      <c r="T25" s="24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20" ht="15.6" thickBot="1">
-      <c r="B26" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="31"/>
+      <c r="F25" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="J25" s="46"/>
+      <c r="K25" s="47"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="U25" s="23"/>
+    </row>
+    <row r="26" spans="2:21" ht="15.6" thickBot="1">
+      <c r="B26" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="30"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="3"/>
@@ -1901,16 +1962,18 @@
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
-      <c r="T26" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20">
+      <c r="S26" s="51"/>
+      <c r="T26" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="U26" s="23"/>
+    </row>
+    <row r="27" spans="2:21">
       <c r="B27" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="14">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>35</v>
@@ -1919,16 +1982,18 @@
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
-      <c r="T27" s="24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20">
+      <c r="S27" s="51"/>
+      <c r="T27" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="U27" s="23"/>
+    </row>
+    <row r="28" spans="2:21">
       <c r="B28" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>35</v>
@@ -1937,16 +2002,18 @@
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
-      <c r="T28" s="24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20">
+      <c r="S28" s="51"/>
+      <c r="T28" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="U28" s="23"/>
+    </row>
+    <row r="29" spans="2:21">
       <c r="B29" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="D29" s="21" t="s">
         <v>34</v>
@@ -1955,11 +2022,13 @@
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
-      <c r="T29" s="24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="2:20">
+      <c r="S29" s="51"/>
+      <c r="T29" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="U29" s="23"/>
+    </row>
+    <row r="30" spans="2:21">
       <c r="B30" s="6" t="s">
         <v>32</v>
       </c>
@@ -1973,116 +2042,165 @@
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
-      <c r="T30" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20" ht="15">
+      <c r="S30" s="51"/>
+      <c r="T30" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="U30" s="23"/>
+    </row>
+    <row r="31" spans="2:21" ht="15">
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
-      <c r="T31" s="24" t="s">
+      <c r="S31" s="51"/>
+      <c r="T31" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="U31" s="23"/>
+    </row>
+    <row r="32" spans="2:21">
+      <c r="S32" s="51"/>
+      <c r="T32" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="U32" s="23"/>
+    </row>
+    <row r="33" spans="19:21">
+      <c r="S33" s="51"/>
+      <c r="T33" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="U33" s="23"/>
+    </row>
+    <row r="34" spans="19:21">
+      <c r="S34" s="51"/>
+      <c r="T34" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="U34" s="23"/>
+    </row>
+    <row r="35" spans="19:21">
+      <c r="S35" s="51"/>
+      <c r="T35" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="U35" s="23"/>
+    </row>
+    <row r="36" spans="19:21">
+      <c r="S36" s="51"/>
+      <c r="T36" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="U36" s="23"/>
+    </row>
+    <row r="37" spans="19:21">
+      <c r="S37" s="51"/>
+      <c r="T37" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="U37" s="23"/>
+    </row>
+    <row r="38" spans="19:21">
+      <c r="S38" s="51"/>
+      <c r="T38" s="23" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="32" spans="2:20">
-      <c r="T32" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="20:20">
-      <c r="T33" s="24" t="s">
+      <c r="U38" s="23"/>
+    </row>
+    <row r="39" spans="19:21">
+      <c r="S39" s="51"/>
+      <c r="T39" s="23" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="34" spans="20:20">
-      <c r="T34" s="24" t="s">
+      <c r="U39" s="23"/>
+    </row>
+    <row r="40" spans="19:21">
+      <c r="S40" s="51"/>
+      <c r="T40" s="23" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="35" spans="20:20">
-      <c r="T35" s="24" t="s">
+      <c r="U40" s="23"/>
+    </row>
+    <row r="41" spans="19:21">
+      <c r="S41" s="51"/>
+      <c r="T41" s="23" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="36" spans="20:20">
-      <c r="T36" s="24" t="s">
+      <c r="U41" s="23"/>
+    </row>
+    <row r="42" spans="19:21">
+      <c r="S42" s="51"/>
+      <c r="T42" s="23" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="37" spans="20:20">
-      <c r="T37" s="24" t="s">
+      <c r="U42" s="23"/>
+    </row>
+    <row r="43" spans="19:21">
+      <c r="S43" s="51"/>
+      <c r="T43" s="23" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="38" spans="20:20">
-      <c r="T38" s="24" t="s">
+      <c r="U43" s="23"/>
+    </row>
+    <row r="44" spans="19:21">
+      <c r="S44" s="51"/>
+      <c r="T44" s="23" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="39" spans="20:20">
-      <c r="T39" s="24" t="s">
+      <c r="U44" s="23"/>
+    </row>
+    <row r="45" spans="19:21">
+      <c r="S45" s="51"/>
+      <c r="T45" s="23" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="40" spans="20:20">
-      <c r="T40" s="24" t="s">
+      <c r="U45" s="23"/>
+    </row>
+    <row r="46" spans="19:21">
+      <c r="S46" s="51"/>
+      <c r="T46" s="23" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="41" spans="20:20">
-      <c r="T41" s="24" t="s">
+      <c r="U46" s="23"/>
+    </row>
+    <row r="47" spans="19:21">
+      <c r="S47" s="51"/>
+      <c r="T47" s="23" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="42" spans="20:20">
-      <c r="T42" s="24" t="s">
+      <c r="U47" s="23"/>
+    </row>
+    <row r="48" spans="19:21">
+      <c r="S48" s="51"/>
+      <c r="T48" s="23" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="43" spans="20:20">
-      <c r="T43" s="24" t="s">
+      <c r="U48" s="23"/>
+    </row>
+    <row r="49" spans="19:21">
+      <c r="S49" s="51"/>
+      <c r="T49" s="23" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" spans="20:20">
-      <c r="T44" s="24" t="s">
+      <c r="U49" s="23"/>
+    </row>
+    <row r="50" spans="19:21">
+      <c r="S50" s="51"/>
+      <c r="T50" s="23" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="45" spans="20:20">
-      <c r="T45" s="24" t="s">
+      <c r="U50" s="23"/>
+    </row>
+    <row r="51" spans="19:21">
+      <c r="S51" s="51"/>
+      <c r="T51" s="23" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="46" spans="20:20">
-      <c r="T46" s="24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="20:20">
-      <c r="T47" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="20:20">
-      <c r="T48" s="24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="20:20">
-      <c r="T49" s="24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="20:20">
-      <c r="T50" s="24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="20:20">
-      <c r="T51" s="24" t="s">
-        <v>96</v>
-      </c>
+      <c r="U51" s="23"/>
+    </row>
+    <row r="52" spans="19:21">
+      <c r="S52" s="51"/>
+      <c r="T52" s="51"/>
+      <c r="U52" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -2136,7 +2254,7 @@
     <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Input x to plot" sqref="O3:O5">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input 0 to use Sq" sqref="K6 K7"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input 0 to use Sq" sqref="K6:K7"/>
     <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Input x if has txt data (CCI)" sqref="K4 K11">
       <formula1>"x"</formula1>
     </dataValidation>
